--- a/DOWNLOADS/EDITAIS/U_158492_E_202025 - DISPENSA MG/U_158492_E_202025 - DISPENSA MG_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158492_E_202025 - DISPENSA MG/U_158492_E_202025 - DISPENSA MG_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Nº</t>
   </si>
@@ -41,6 +41,114 @@
   </si>
   <si>
     <t>ARQUIVO</t>
+  </si>
+  <si>
+    <t>Paleta plástica para tintas — 10 cavidades</t>
+  </si>
+  <si>
+    <t>Pincéis redondo (round). Bom para detalhes, contornos e linhas finas. Tamanhos diversos.</t>
+  </si>
+  <si>
+    <t>Pincéis chato para pintura tecido madeira artesanato. Tamanhos diversos.</t>
+  </si>
+  <si>
+    <t>TeIa para pintura. Tamanho 10,0 cm x 15 cm</t>
+  </si>
+  <si>
+    <t>TeIa para pintura. Tamanho 20,0 cm x 25 cm</t>
+  </si>
+  <si>
+    <t>TeIa para pintura. Tamanho 40 cm x 50 cm</t>
+  </si>
+  <si>
+    <t>TeIa para pintura. Tamanho 60,0 cm x 80 cm</t>
+  </si>
+  <si>
+    <t>Material de desenho - lápis de carvão. Unidade. Tipo: artístico encapsulado. Modelo grafite em carvão com tratamento especial para melhor controle. Indicado para desenhos expressivos, retratos e sombreamento profundo.</t>
+  </si>
+  <si>
+    <t>Material de desenho -lápis de grafite. Tipo: profissional artístico. Kit 4 lápis técnicos 2b 4b 6b 8b</t>
+  </si>
+  <si>
+    <t>Bloco de papel a2; pacote com 20 folhas; gramatura 200</t>
+  </si>
+  <si>
+    <t>Bloco de papel a3; pacote com 20 folhas; gramatura 200</t>
+  </si>
+  <si>
+    <t>Cavalete para pintura - Desmontável Com Ajuste De Altura - Altura Regulável: 50cm a 100cm. Capacidade Máxima da Tela: 103cm de altura.</t>
+  </si>
+  <si>
+    <t>Tinta Acrílica Bisnaga 20ml. Cores: amarelo, vermelho, azul, laranja, verde, violeta, branco e preto (80 unidades no total, sendo no mínimo 10 de cada cor).</t>
+  </si>
+  <si>
+    <t>Encordoamento tensão média para violão nailon</t>
+  </si>
+  <si>
+    <t>Encordoamento para contrabaixo elétrico</t>
+  </si>
+  <si>
+    <t>Encordoamento para violão de cordas de aço</t>
+  </si>
+  <si>
+    <t>Palheta para violão - 0.73mm</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda. Tipo: contrabaixo elétrico de 5 cordas; corpo em alder; braço em maple modern “c” shape; escala em laurel indiano com 34” (864mm); 20 trastes médium jumbo; escala com raio de 9.5” (305mm); largura do nut 1.875” (47.6 mm); tarraxas standard abertas; ponte standard com 5 saddles; ferragem cromada; 2 captadores standard single-coil jazzbass; escudo sanduiche (3 ply); controles de v/v/mt; encordoamento (0.45 - .125). Acompanha: estojo. Obs.: modelo referência contrabaixo squier affinity jazz bassº v Irl bpg 3ts.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda, tipo: guitarra elétrica de 6 cordas; corpo: pinho; braço: maple "c" shape (envernizado); escala: maple com 25.5" (648 mm); 21 trastes narrow tall; raio da escala de 9.5" (241mm); nut em osso com largura de 1.650" (42mm); tarraxas estilo vintage; ponte tremolo estilo vintage com 6 saddles; ferragem niquelada; 3 captadores fenderº designed alnico single-coil stratº; escudo maciço (1ply); chave de 5 posições; controles de mv/t/t; encordoamento (.009-.042). Acompanha: estojo. Obs.: modelo referência guitarra squier stratocaster classic vibe 50s mn white blk.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda. Tipo: ukulele tenor. Tampo: sapele. Lateral: sapele. Fundo: sapele. Braço: okoume. Escala: blackwood. Cavalete: blackwood. Tarraxas: die cast. Pestana: abs. Rastilho: abs. Acompanha: bag de nylon. Cor: natural.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda. Tipo:violão acústico. Componentes: 6 cordas de nylon, 20 trastes. Acompanha: estojo.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percussão. Tipo: atabaque 120 cm altura / boca 28 cm. Madeira: reciclada (cedrinho, ipê, freijó). Afinação: tarraxa. Pele: animal. Cor: verniz mogno.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percussão. Tipo: bateria acústica. Componentes: bumbo 20" ou 22", 03 tons (8", 10" e 12"), tons suspensos por clamps, 3 pedestais de pratos e tons, caixa 14", surdo 16", pedal de bumbo.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percussão. Tipo: cajon elétrico. Material: madeira — sumaúma.  Características adicionais: assento acolchoado, dimensões: (axlxp) 520x350x412mm, esteira 24 fios, captação: dupla (grave e agudo) , saída (xlr) balanceadas.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percussão. Tipo: ovinhos de percussão (egg shaker). Ganzá em formato oval de material plástico.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda. Tipo: violino 4/4. Componentes: tampo maciço. Batedeira em abeto. Voltar, lateral e tubel em bordo (maple). Casas em ebano. Escala de ebano feito à mão. 04 micro afinadores de precisão. Descanso de queixo em ébano. Ponte original. Cordas. Verniz poliuretano liso. Características adicionais: com estojo, case, arco e breu.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - percussão. Tipo: pandeiro. Material madeira, pele em couro. Tamanho 10 pol.</t>
+  </si>
+  <si>
+    <t>Microfone dinâmico cardioide para áudio. Tipo: dinâmico, padrão polar cardioide. Indicado para captação vocal. Material: corpo em metal resistente com grade esférica em aço. Recursos: sistema anti-choque integrado para redução de ruídos de manuseio. Aplicações: ideal para apresentações ao vivo, palestras e estúdios.</t>
+  </si>
+  <si>
+    <t>Receiver amplificador som ambiente - 4 canais, conectores de entrada RCA; conectores de saída XLR; Encoder; Conexão IR Frontal + Extensor IR; Potência De Saída RMS 480w, bivolt, conexão HDMI. Modelo de referência: Frahm Slim 4700 HDMI</t>
+  </si>
+  <si>
+    <t>Mesa de Som Analógica 10 Canais. Material: estrutura metálica com acabamento em plástico resistente. Peso do produto: cerca de 2,1 kg. Dimensões: cerca de 71 mm (altura) x 244 mm (largura) x 294 mm (profundidade). Alimentação: bivolt automático. Canais: 10 canais (sendo 4 mono com phantom power e 3 estéreo). Entradas: XLR, P10 e RCA. Saídas: estéreo (XLR e P10), fone de ouvido (P10). Equalização: equalizador de 3 bandas nos canais mono. Recursos: phantom power +48V, filtro low-cut, compressão em um único botão, envio para monitoramento e efeitos.</t>
+  </si>
+  <si>
+    <t>Piano digital - 88 teclas; com pedal subst.; cor preto; bivolt; Modo Duo; 4 tipos de reverb; Metrônomo integrado; Polifonia de 64 notas; porta USB to Host; Entrada padrão estéreo para fone de ouvido; com dois alto-falantes de 7W embutidos; Modelo de referência: Yamaha P145</t>
+  </si>
+  <si>
+    <t>Bola Rítmica Africana Asalato Aslatua Shakers. Material: macia, corda de náilon. Peso do produto: cerca de 57g. Comprimento total: cerca de 20 cm/7,87 polegadas. Comprimento da corda: cerca de 10cm/3,94 polegadas. Diâmetro da bola: cerca de 5cm/1,97 polegadas.</t>
+  </si>
+  <si>
+    <t>Amplificador para Guitarra 50W. Material: madeira revestida em courvin preto. Peso do produto: cerca de 10 kg. Dimensões: cerca de 40 cm (altura) x 52 cm (largura) x 24,5 cm (profundidade). Alimentação: bivolt 110/220V. Potência: 500W RMS. Tecnologia: transistorizado. Alto-falante: 8 polegadas. Entradas: 1 P10 para instrumento, 1 auxiliar P2. Saídas: fone de ouvido P2, saída para caixa externa. Controles: volume, ganho, equalização de 3 bandas (graves, médios, agudos), drive e reverb integrado.</t>
+  </si>
+  <si>
+    <t>Amplificador para Contrabaixo 150W. Material: gabinete em madeira com revestimento em vinil preto. Peso do produto: cerca de 22 kg. Dimensões: cerca de 60 cm (altura) x 50 cm (largura) x 35 cm (profundidade). Alimentação: bivolt com chave seletora. Potência: 150W RMS.  Tecnologia: transistorizado. Alto-falante: 1 falante de 15 polegadas com driver de alta frequência. Entradas: P10 ativo/passivo, auxiliar estéreo (P2/RCA). Saídas: fone de ouvido (P2), saída direta XLR. Controles: volume, equalização de 7 bandas, compressor embutido, botão shape. Aplicações: indicado para ensaios, apresentações e uso profissional.</t>
+  </si>
+  <si>
+    <t>Microfone sem fio tipo lapela com conexão Lightning . Tipo: condensador, padrão polar omnidirecional. Conectividade: sistema sem fio 2.4GHz com receptor Lightning. Compatibilidade: dispositivos iOS com entrada Lightning (iPhone, iPad). Cor: preta. Alimentação: bateria interna recarregável com autonomia de até 9 horas. Recursos: dois transmissores com microfone embutido, clipes para fixação, emparelhamento automático, indicador LED de status. Aplicações: ideal para gravações com smartphones Apple, entrevistas, vlogs, aulas e produções audiovisuais</t>
+  </si>
+  <si>
+    <t>Caixa de som ativa 12 polegadas 1000W RMS. Material: gabinete em plástico de alta resistência na cor preta. Peso do produto: cerca de 16 kg. Dimensões: aproximadamente 65 cm (altura) x 40 cm (largura) x 35 cm (profundidade). Alimentação: bivolt automático. Potência: 1000W RMS. Alto-falante: woofer de 12 polegadas com driver de titânio. Entradas: XLR, P10, RCA e USB. Recursos: Bluetooth integrado, leitor USB/SD, display digital, controle remoto, mixer embutido com ajuste de volume e equalização. Aplicações: ideal para eventos, apresentações, ambientes internos e externos.</t>
   </si>
   <si>
     <t>U_158492_E_202025 - DISPENSA MG</t>
@@ -401,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,178 +545,399 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
       <c r="I16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
       <c r="I19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
       <c r="I20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
       <c r="I21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
       <c r="I23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
       <c r="I24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
       <c r="I25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
       <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
       <c r="I27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
       <c r="I28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
       <c r="I29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
       <c r="I30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
       <c r="I31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
       <c r="I32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
       <c r="I33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
       <c r="I34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
       <c r="I35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
       <c r="I36" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_158492_E_202025 - DISPENSA MG/U_158492_E_202025 - DISPENSA MG_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158492_E_202025 - DISPENSA MG/U_158492_E_202025 - DISPENSA MG_master.xlsx
@@ -43,7 +43,7 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Paleta plástica para tintas — 10 cavidades</t>
+    <t>Paleta plástica para tintas – 10 cavidades</t>
   </si>
   <si>
     <t>Pincéis redondo (round). Bom para detalhes, contornos e linhas finas. Tamanhos diversos.</t>
@@ -52,28 +52,28 @@
     <t>Pincéis chato para pintura tecido madeira artesanato. Tamanhos diversos.</t>
   </si>
   <si>
-    <t>TeIa para pintura. Tamanho 10,0 cm x 15 cm</t>
-  </si>
-  <si>
-    <t>TeIa para pintura. Tamanho 20,0 cm x 25 cm</t>
-  </si>
-  <si>
-    <t>TeIa para pintura. Tamanho 40 cm x 50 cm</t>
-  </si>
-  <si>
-    <t>TeIa para pintura. Tamanho 60,0 cm x 80 cm</t>
+    <t>Tela para pintura. Tamanho 10,0 cm x 15 cm</t>
+  </si>
+  <si>
+    <t>Tela para pintura. Tamanho 20,0 cm x 25 cm</t>
+  </si>
+  <si>
+    <t>Tela para pintura. Tamanho 40 cm x 50 cm</t>
+  </si>
+  <si>
+    <t>Tela para pintura. Tamanho 60,0 cm x 80 cm</t>
   </si>
   <si>
     <t>Material de desenho - lápis de carvão. Unidade. Tipo: artístico encapsulado. Modelo grafite em carvão com tratamento especial para melhor controle. Indicado para desenhos expressivos, retratos e sombreamento profundo.</t>
   </si>
   <si>
-    <t>Material de desenho -lápis de grafite. Tipo: profissional artístico. Kit 4 lápis técnicos 2b 4b 6b 8b</t>
-  </si>
-  <si>
-    <t>Bloco de papel a2; pacote com 20 folhas; gramatura 200</t>
-  </si>
-  <si>
-    <t>Bloco de papel a3; pacote com 20 folhas; gramatura 200</t>
+    <t>Material de desenho - lápis de grafite. Tipo: profissional artístico. Kit 4 lápis técnicos 2b 4b 6b 8b</t>
+  </si>
+  <si>
+    <t>Bloco de papel a2; paconte com 20 folhas; gramatura 200</t>
+  </si>
+  <si>
+    <t>Bloco de papel a3; paconte com 20 folhas; gramatura 200</t>
   </si>
   <si>
     <t>Cavalete para pintura - Desmontável Com Ajuste De Altura - Altura Regulável: 50cm a 100cm. Capacidade Máxima da Tela: 103cm de altura.</t>
@@ -94,16 +94,16 @@
     <t>Palheta para violão - 0.73mm</t>
   </si>
   <si>
-    <t>Instrumento musical - corda. Tipo: contrabaixo elétrico de 5 cordas; corpo em alder; braço em maple modern “c” shape; escala em laurel indiano com 34” (864mm); 20 trastes médium jumbo; escala com raio de 9.5” (305mm); largura do nut 1.875” (47.6 mm); tarraxas standard abertas; ponte standard com 5 saddles; ferragem cromada; 2 captadores standard single-coil jazzbass; escudo sanduiche (3 ply); controles de v/v/mt; encordoamento (0.45 - .125). Acompanha: estojo. Obs.: modelo referência contrabaixo squier affinity jazz bassº v Irl bpg 3ts.</t>
-  </si>
-  <si>
-    <t>Instrumento musical - corda, tipo: guitarra elétrica de 6 cordas; corpo: pinho; braço: maple "c" shape (envernizado); escala: maple com 25.5" (648 mm); 21 trastes narrow tall; raio da escala de 9.5" (241mm); nut em osso com largura de 1.650" (42mm); tarraxas estilo vintage; ponte tremolo estilo vintage com 6 saddles; ferragem niquelada; 3 captadores fenderº designed alnico single-coil stratº; escudo maciço (1ply); chave de 5 posições; controles de mv/t/t; encordoamento (.009-.042). Acompanha: estojo. Obs.: modelo referência guitarra squier stratocaster classic vibe 50s mn white blk.</t>
+    <t>Instrumento musical - corda. Tipo: contrabaixo elétrico de 5 cordas; corpo em alder; braço em maple modern “c” shape; escala em laurel indiano com 34” (864mm); 20 trastes médium jumbo; escala com raio de 9.5” (305mm); largura do nut 1.875” (47.6 mm); tarraxas standard abertas; ponte standard com 5 saddles; ferragem cromada; 2 captadores standard single-coil jazzbass; escudo sanduiche (3 ply); controles de v/v/mt; encordoamento (0.45 - .125). Acompanha: estojo. Obs.: modelo referência contrabaixo squier affinity jazz bass® v lrl bpg 3ts.</t>
+  </si>
+  <si>
+    <t>Instrumento musical - corda, tipo: guitarra elétrica de 6 cordas; corpo: pinho; braço: maple "c" shape (envernizado); escala: maple com 25.5" (648 mm); 21 trastes narrow tall; raio da escala de 9.5" (241mm); nut em osso com largura de 1.650" (42mm); tarraxas estilo vintage; ponte tremolo estilo vintage com 6 saddles; ferragem niquelada; 3 captadores fender® designed alnico single-coil strat®; escudo maciço (1ply); chave de 5 posições; controles de mv/t/t; encordoamento (.009 - .042). Acompanha: estojo. Obs.: modelo referência guitarra squier stratocaster classic vibe 50s mn white blk.</t>
   </si>
   <si>
     <t>Instrumento musical - corda. Tipo: ukulele tenor. Tampo: sapele. Lateral: sapele. Fundo: sapele. Braço: okoume. Escala: blackwood. Cavalete: blackwood. Tarraxas: die cast. Pestana: abs. Rastilho: abs. Acompanha: bag de nylon. Cor: natural.</t>
   </si>
   <si>
-    <t>Instrumento musical - corda. Tipo:violão acústico. Componentes: 6 cordas de nylon, 20 trastes. Acompanha: estojo.</t>
+    <t>Instrumento musical - corda. Tipo: violão acústico. Componentes: 6 cordas de nylon, 20 trastes. Acompanha: estojo.</t>
   </si>
   <si>
     <t>Instrumento musical - percussão. Tipo: atabaque 120 cm altura / boca 28 cm. Madeira: reciclada (cedrinho, ipê, freijó). Afinação: tarraxa. Pele: animal. Cor: verniz mogno.</t>
@@ -112,7 +112,7 @@
     <t>Instrumento musical - percussão. Tipo: bateria acústica. Componentes: bumbo 20" ou 22", 03 tons (8", 10" e 12"), tons suspensos por clamps, 3 pedestais de pratos e tons, caixa 14", surdo 16", pedal de bumbo.</t>
   </si>
   <si>
-    <t>Instrumento musical - percussão. Tipo: cajon elétrico. Material: madeira — sumaúma.  Características adicionais: assento acolchoado, dimensões: (axlxp) 520x350x412mm, esteira 24 fios, captação: dupla (grave e agudo) , saída (xlr) balanceadas.</t>
+    <t>Instrumento musical - percursão. Tipo: cajon elétrico. Material: madeira sumaúma. Características adicionais: assento acolchoado, dimensões: (axlxp) 520x350x412mm, esteira 24 fios, captação: dupla (grave e agudo) , saída (xlr) balanceadas.</t>
   </si>
   <si>
     <t>Instrumento musical - percussão. Tipo: ovinhos de percussão (egg shaker). Ganzá em formato oval de material plástico.</t>
@@ -124,7 +124,7 @@
     <t>Instrumento musical - percussão. Tipo: pandeiro. Material madeira, pele em couro. Tamanho 10 pol.</t>
   </si>
   <si>
-    <t>Microfone dinâmico cardioide para áudio. Tipo: dinâmico, padrão polar cardioide. Indicado para captação vocal. Material: corpo em metal resistente com grade esférica em aço. Recursos: sistema anti-choque integrado para redução de ruídos de manuseio. Aplicações: ideal para apresentações ao vivo, palestras e estúdios.</t>
+    <t>Microfone dinâmico cardioide para áudio . Tipo: dinâmico, padrão polar cardioide. Indicado para captação vocal. Material: corpo em metal resistente com grade esférica em aço. Recursos: sistema anti-choque integrado para redução de ruídos de manuseio. Aplicações: ideal para apresentações ao vivo, palestras e estúdios.</t>
   </si>
   <si>
     <t>Receiver amplificador som ambiente - 4 canais, conectores de entrada RCA; conectores de saída XLR; Encoder; Conexão IR Frontal + Extensor IR; Potência De Saída RMS 480w, bivolt, conexão HDMI. Modelo de referência: Frahm Slim 4700 HDMI</t>
@@ -139,13 +139,13 @@
     <t>Bola Rítmica Africana Asalato Aslatua Shakers. Material: macia, corda de náilon. Peso do produto: cerca de 57g. Comprimento total: cerca de 20 cm/7,87 polegadas. Comprimento da corda: cerca de 10cm/3,94 polegadas. Diâmetro da bola: cerca de 5cm/1,97 polegadas.</t>
   </si>
   <si>
-    <t>Amplificador para Guitarra 50W. Material: madeira revestida em courvin preto. Peso do produto: cerca de 10 kg. Dimensões: cerca de 40 cm (altura) x 52 cm (largura) x 24,5 cm (profundidade). Alimentação: bivolt 110/220V. Potência: 500W RMS. Tecnologia: transistorizado. Alto-falante: 8 polegadas. Entradas: 1 P10 para instrumento, 1 auxiliar P2. Saídas: fone de ouvido P2, saída para caixa externa. Controles: volume, ganho, equalização de 3 bandas (graves, médios, agudos), drive e reverb integrado.</t>
-  </si>
-  <si>
-    <t>Amplificador para Contrabaixo 150W. Material: gabinete em madeira com revestimento em vinil preto. Peso do produto: cerca de 22 kg. Dimensões: cerca de 60 cm (altura) x 50 cm (largura) x 35 cm (profundidade). Alimentação: bivolt com chave seletora. Potência: 150W RMS.  Tecnologia: transistorizado. Alto-falante: 1 falante de 15 polegadas com driver de alta frequência. Entradas: P10 ativo/passivo, auxiliar estéreo (P2/RCA). Saídas: fone de ouvido (P2), saída direta XLR. Controles: volume, equalização de 7 bandas, compressor embutido, botão shape. Aplicações: indicado para ensaios, apresentações e uso profissional.</t>
-  </si>
-  <si>
-    <t>Microfone sem fio tipo lapela com conexão Lightning . Tipo: condensador, padrão polar omnidirecional. Conectividade: sistema sem fio 2.4GHz com receptor Lightning. Compatibilidade: dispositivos iOS com entrada Lightning (iPhone, iPad). Cor: preta. Alimentação: bateria interna recarregável com autonomia de até 9 horas. Recursos: dois transmissores com microfone embutido, clipes para fixação, emparelhamento automático, indicador LED de status. Aplicações: ideal para gravações com smartphones Apple, entrevistas, vlogs, aulas e produções audiovisuais</t>
+    <t>Amplificador para Guitarra 50W. Material: madeira revestida em courvin preto. Peso do produto: cerca de 10 kg. Dimensões: cerca de 40 cm (altura) x 52 cm (largura) x 24,5 cm (profundidade). Alimentação: bivolt 110/220V. Potência: 50W RMS. Tecnologia: transistorizado. Alto-falante: 8 polegadas. Entradas: 1 P10 para instrumento, 1 auxiliar P2. Saídas: fone de ouvido P2, saída para caixa externa. Controles: volume, ganho, equalização de 3 bandas (graves, médios, agudos), drive e reverb integrado.</t>
+  </si>
+  <si>
+    <t>Amplificador para Contrabaixo 150W. Material: gabinete em madeira com revestimento em vinil preto. Peso do produto: cerca de 22 kg. Dimensões: cerca de 60 cm (altura) x 50 cm (largura) x 35 cm (profundidade). Alimentação: bivolt com chave seletora. Potência: 150W RMS. Tecnologia: transistorizado. Alto-falante: 1 falante de 15 polegadas com driver de alta frequência. Entradas: P10 ativo/passivo, auxiliar estéreo (P2/RCA). Saídas: fone de ouvido (P2), saída direta XLR. Controles: volume, equalização de 7 bandas, compressor embutido, botão shape. Aplicações: indicado para ensaios, apresentações e uso profissional.</t>
+  </si>
+  <si>
+    <t>Microfone sem fio tipo lapela com conexão Lightning . Tipo: condensador, padrão polar omnidirecional. Conectividade: sistema sem fio 2.4GHz com receptor Lightning. Compatibilidade: dispositivos iOS com entrada Lightning (iPhone, iPad). Cor: preta. Alimentação: bateria interna recarregável com autonomia de até 9 horas. Recursos: dois transmissores com microfone embutido, clipes para fixação, emparelhamento automático, indicador LED de status. Aplicações: ideal para gravações com smartphones Apple, entrevistas, vlogs, aulas e produções audiovisuais móveis.</t>
   </si>
   <si>
     <t>Caixa de som ativa 12 polegadas 1000W RMS. Material: gabinete em plástico de alta resistência na cor preta. Peso do produto: cerca de 16 kg. Dimensões: aproximadamente 65 cm (altura) x 40 cm (largura) x 35 cm (profundidade). Alimentação: bivolt automático. Potência: 1000W RMS. Alto-falante: woofer de 12 polegadas com driver de titânio. Entradas: XLR, P10, RCA e USB. Recursos: Bluetooth integrado, leitor USB/SD, display digital, controle remoto, mixer embutido com ajuste de volume e equalização. Aplicações: ideal para eventos, apresentações, ambientes internos e externos.</t>
